--- a/xlsx/秋季_intext.xlsx
+++ b/xlsx/秋季_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="285">
   <si>
     <t>秋季</t>
   </si>
@@ -29,7 +29,7 @@
     <t>秋 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_秋季</t>
+    <t>政策_政策_美国_秋季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B0%A3</t>
   </si>
   <si>
-    <t>天氣</t>
+    <t>天气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E7%AF%80</t>
   </si>
   <si>
-    <t>季節</t>
+    <t>季节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E5%AD%A3</t>
@@ -107,25 +107,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A7%E7%8B%80%E9%9B%B2</t>
   </si>
   <si>
-    <t>弧狀雲</t>
+    <t>弧状云</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E6%93%8A%E6%9A%B4%E6%B5%81</t>
   </si>
   <si>
-    <t>下擊暴流</t>
+    <t>下击暴流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E4%B8%8B%E6%93%8A%E6%9A%B4%E6%B5%81</t>
   </si>
   <si>
-    <t>微下擊暴流</t>
+    <t>微下击暴流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E6%9A%B4%E6%B5%81</t>
   </si>
   <si>
-    <t>熱暴流</t>
+    <t>热暴流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%B0%98%E6%9A%B4</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%88%E9%A2%A8</t>
   </si>
   <si>
-    <t>烈風</t>
+    <t>烈风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B4%9B%E5%8F%AF%E9%A3%8E</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%81%BD%E6%9A%B4%E9%A2%A8</t>
   </si>
   <si>
-    <t>火災暴風</t>
+    <t>火灾暴风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%AA%E7%94%B5</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%87%E7%83%88%E9%9B%B7%E9%9B%A8</t>
   </si>
   <si>
-    <t>劇烈雷雨</t>
+    <t>剧烈雷雨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%89%93%E9%9B%AA</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E6%8D%B2%E9%A2%A8</t>
   </si>
   <si>
-    <t>龍捲風</t>
+    <t>龙捲风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E6%97%8B</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E6%B0%A3%E6%97%8B</t>
   </si>
   <si>
-    <t>熱帶氣旋</t>
+    <t>热带气旋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E6%B0%A3%E6%97%8B</t>
   </si>
   <si>
-    <t>溫帶氣旋</t>
+    <t>温带气旋</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/European_windstorm</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%B1%E9%A2%A8</t>
   </si>
   <si>
-    <t>颱風</t>
+    <t>台风</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Derecho</t>
@@ -275,19 +275,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%B5%E6%8D%B2%E9%A2%A8</t>
   </si>
   <si>
-    <t>塵捲風</t>
+    <t>尘捲风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E9%BE%8D%E6%8D%B2</t>
   </si>
   <si>
-    <t>火龍捲</t>
+    <t>火龙捲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%BE%8D%E6%8D%B2%E9%A2%A8</t>
   </si>
   <si>
-    <t>海龍捲風</t>
+    <t>海龙捲风</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Winter_storm</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A8%E5%A4%BE%E9%9B%AA</t>
   </si>
   <si>
-    <t>雨夾雪</t>
+    <t>雨夹雪</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Snow_grains</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E6%B2%B3%E6%B5%81</t>
   </si>
   <si>
-    <t>大氣河流</t>
+    <t>大气河流</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Atmospheric_convection</t>
@@ -431,19 +431,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%A3%E6%B1%A1%E6%9F%93</t>
   </si>
   <si>
-    <t>空氣污染</t>
+    <t>空气污染</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%A7</t>
   </si>
   <si>
-    <t>霧</t>
+    <t>雾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E6%BD%AE</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9F%E6%B0%A3%E6%B5%81</t>
   </si>
   <si>
-    <t>高速氣流</t>
+    <t>高速气流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E8%B1%A1%E5%AD%A6</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%A4%A9%E6%B0%A3</t>
   </si>
   <si>
-    <t>Template talk-天氣</t>
+    <t>Template talk-天气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%91%89</t>
   </si>
   <si>
-    <t>紅葉</t>
+    <t>红叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E4%BB%A4%E6%97%B6</t>
@@ -563,13 +563,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>運動會</t>
+    <t>运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E8%81%96%E5%A4%9C</t>
   </si>
   <si>
-    <t>萬聖夜</t>
+    <t>万圣夜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%A5%AD</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%9D%E7%B5%90</t>
   </si>
   <si>
-    <t>凝結</t>
+    <t>凝结</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B2</t>
@@ -707,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>節日</t>
+    <t>节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E7%AF%80</t>
   </si>
   <si>
-    <t>中元節</t>
+    <t>中元节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%82%E5%85%B0%E7%9B%86%E8%8A%82</t>
@@ -725,9 +725,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%A7%8B%E7%AF%80</t>
   </si>
   <si>
-    <t>中秋節</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%98%A5</t>
   </si>
   <si>
@@ -833,9 +830,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E8%8A%82</t>
   </si>
   <si>
-    <t>季节</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E9%9B%A8</t>
   </si>
   <si>
@@ -845,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -4668,7 +4662,7 @@
         <v>235</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4694,10 +4688,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4723,10 +4717,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4752,10 +4746,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4781,10 +4775,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4810,10 +4804,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4839,10 +4833,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4868,10 +4862,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4897,10 +4891,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4926,10 +4920,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4955,10 +4949,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4984,10 +4978,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5013,10 +5007,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5042,10 +5036,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5071,10 +5065,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5100,10 +5094,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5129,10 +5123,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5158,10 +5152,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5187,10 +5181,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>10</v>
       </c>
       <c r="G137" t="n">
         <v>6</v>
@@ -5332,10 +5326,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5361,10 +5355,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -5390,10 +5384,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5419,10 +5413,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5448,10 +5442,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5477,10 +5471,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5506,10 +5500,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
